--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_09.08.20.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_09.08.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s2cDNASample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6195A28B-D23E-354B-A1B1-06E57FBF2C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7544522-B27D-9B42-9E7B-0B9BE96A8D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="740" windowWidth="20740" windowHeight="16940" xr2:uid="{6C4AC960-ED39-E74B-921B-D163919D8A38}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="11">
   <si>
     <t>s1cDNADate</t>
   </si>
@@ -56,9 +48,6 @@
     <t>s2cDNAProtocol</t>
   </si>
   <si>
-    <t>PoolledSecondStrand</t>
-  </si>
-  <si>
     <t>roboticS2Prep</t>
   </si>
   <si>
@@ -75,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717268A1-7DF1-7145-B865-75C4F16026C8}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,631 +442,628 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="b">
+        <v>10</v>
+      </c>
+      <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
